--- a/schema-crate/ro-crate-metadata-danala.xlsx
+++ b/schema-crate/ro-crate-metadata-danala.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uqrsmi37/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342029F7-C4B2-B64E-A39E-4B4D78CF91F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CD7362-9B77-E642-9969-455C1B01D96D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RootDataset" sheetId="10" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
   <si>
     <t>@id</t>
   </si>
@@ -99,10 +99,22 @@
     <t>Cultural Advisor</t>
   </si>
   <si>
-    <t>icipAgreement</t>
+    <t>ICIP Agreement</t>
   </si>
   <si>
-    <t>ICIP Agreement</t>
+    <t>ICIPAgreement</t>
+  </si>
+  <si>
+    <t>hasICIPAgreement</t>
+  </si>
+  <si>
+    <t>Has ICIP Agreement</t>
+  </si>
+  <si>
+    <t>isRef_rangeIncludes</t>
+  </si>
+  <si>
+    <t>https://w3id.org/danala/terms#ICIPAgreement</t>
   </si>
 </sst>
 </file>
@@ -1145,7 +1157,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B1B4B01-7DA1-4F69-8EF2-3B9D5666F67A}">
   <dimension ref="A1:B16376"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
@@ -50369,7 +50381,7 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -50410,16 +50422,16 @@
     <row r="2" spans="1:7">
       <c r="A2" s="12" t="str">
         <f>_xlfn.CONCAT('@context'!B2, C2)</f>
-        <v>https://w3id.org/danala/terms#icipAgreement</v>
+        <v>https://w3id.org/danala/terms#ICIPAgreement</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -50433,26 +50445,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C3E78B0-1287-3A4C-9243-9A26279A967A}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="43" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.33203125" style="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.1640625" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="5"/>
+    <col min="8" max="8" width="43" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="7" customFormat="1">
+    <row r="1" spans="1:8" s="7" customFormat="1">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -50474,8 +50487,11 @@
       <c r="G1" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="12" t="str">
         <f>_xlfn.CONCAT('@context'!B2, C2)</f>
         <v>https://w3id.org/danala/terms#culturalAdvisor</v>
@@ -50493,6 +50509,27 @@
       <c r="F2" s="4"/>
       <c r="G2" s="9"/>
     </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="12" t="str">
+        <f>_xlfn.CONCAT('@context'!B2, C3)</f>
+        <v>https://w3id.org/danala/terms#hasICIPAgreement</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -50505,7 +50542,7 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD4"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/schema-crate/ro-crate-metadata-danala.xlsx
+++ b/schema-crate/ro-crate-metadata-danala.xlsx
@@ -5,19 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uqrsmi37/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uqrsmi37/Downloads/danala-schema-updated/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CD7362-9B77-E642-9969-455C1B01D96D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0623A2A-8BCC-B24A-A1F5-90354EA2D478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RootDataset" sheetId="10" r:id="rId1"/>
     <sheet name="@context" sheetId="15" r:id="rId2"/>
     <sheet name="Classes" sheetId="28" r:id="rId3"/>
     <sheet name="Properties" sheetId="29" r:id="rId4"/>
-    <sheet name="Defined Terms" sheetId="23" r:id="rId5"/>
+    <sheet name="Bäpurru_Instances" sheetId="30" r:id="rId5"/>
+    <sheet name="Moiety_Instances" sheetId="34" r:id="rId6"/>
+    <sheet name="Mälk_Instances" sheetId="32" r:id="rId7"/>
+    <sheet name="Wäŋa_Instances" sheetId="33" r:id="rId8"/>
+    <sheet name="Defined Terms" sheetId="23" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="125">
   <si>
     <t>@id</t>
   </si>
@@ -99,12 +103,6 @@
     <t>Cultural Advisor</t>
   </si>
   <si>
-    <t>ICIP Agreement</t>
-  </si>
-  <si>
-    <t>ICIPAgreement</t>
-  </si>
-  <si>
     <t>hasICIPAgreement</t>
   </si>
   <si>
@@ -115,6 +113,309 @@
   </si>
   <si>
     <t>https://w3id.org/danala/terms#ICIPAgreement</t>
+  </si>
+  <si>
+    <t>.notes</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>yolnuAccess</t>
+  </si>
+  <si>
+    <t>clanAccess</t>
+  </si>
+  <si>
+    <t>Clan Access</t>
+  </si>
+  <si>
+    <t>Moiety</t>
+  </si>
+  <si>
+    <t>Bäpurru</t>
+  </si>
+  <si>
+    <t>Bäpurru (Clan)</t>
+  </si>
+  <si>
+    <t>Yirritja</t>
+  </si>
+  <si>
+    <t>Yirritja (Moiety)</t>
+  </si>
+  <si>
+    <t>Dhuwa</t>
+  </si>
+  <si>
+    <t>Dhuwa (Moiety)</t>
+  </si>
+  <si>
+    <t>isRef_domainIncludes</t>
+  </si>
+  <si>
+    <t>schema:Person</t>
+  </si>
+  <si>
+    <t>Gälpu</t>
+  </si>
+  <si>
+    <t>Gupapuyŋu</t>
+  </si>
+  <si>
+    <t>Mildjiŋi</t>
+  </si>
+  <si>
+    <t>Wangurri</t>
+  </si>
+  <si>
+    <t>Manhdhalpiŋu</t>
+  </si>
+  <si>
+    <t>Garrawurra</t>
+  </si>
+  <si>
+    <t>Marraŋu</t>
+  </si>
+  <si>
+    <t>Liyagawumirr</t>
+  </si>
+  <si>
+    <t>Golumala</t>
+  </si>
+  <si>
+    <t>Ganalbiŋu</t>
+  </si>
+  <si>
+    <t>Djinba</t>
+  </si>
+  <si>
+    <t>Gumatj</t>
+  </si>
+  <si>
+    <t>Djinaŋ</t>
+  </si>
+  <si>
+    <t>Djaduwitjbi</t>
+  </si>
+  <si>
+    <t>Djambarrpuyŋu</t>
+  </si>
+  <si>
+    <t>Guyamirrilil?</t>
+  </si>
+  <si>
+    <t>Dhaḻwaŋu</t>
+  </si>
+  <si>
+    <t>Rirratjiŋu</t>
+  </si>
+  <si>
+    <t>Djimalka</t>
+  </si>
+  <si>
+    <t>Marraŋu/Dijnaŋ</t>
+  </si>
+  <si>
+    <t>Dhudi-Djapu</t>
+  </si>
+  <si>
+    <t>Dhalwaŋu?</t>
+  </si>
+  <si>
+    <t>Wanybarrŋa</t>
+  </si>
+  <si>
+    <t>ŋändipulu</t>
+  </si>
+  <si>
+    <t>märipulu</t>
+  </si>
+  <si>
+    <t>yapapulu</t>
+  </si>
+  <si>
+    <t>wakupulu</t>
+  </si>
+  <si>
+    <t>Baŋadi?</t>
+  </si>
+  <si>
+    <t>Baŋali</t>
+  </si>
+  <si>
+    <t>Bilinydjan</t>
+  </si>
+  <si>
+    <t>Bulanydjan</t>
+  </si>
+  <si>
+    <t>Gamarraŋ</t>
+  </si>
+  <si>
+    <t>Ŋarritjan</t>
+  </si>
+  <si>
+    <t>Wamut</t>
+  </si>
+  <si>
+    <t>Liyagalawumirr</t>
+  </si>
+  <si>
+    <t>Warramiri</t>
+  </si>
+  <si>
+    <t>Mälk</t>
+  </si>
+  <si>
+    <t>Mälk (Skin name)</t>
+  </si>
+  <si>
+    <t>Ŋändipulu</t>
+  </si>
+  <si>
+    <t>Märipulu</t>
+  </si>
+  <si>
+    <t>Yapapulu</t>
+  </si>
+  <si>
+    <t>Wakupulu</t>
+  </si>
+  <si>
+    <t>Wäŋa (Homeland)</t>
+  </si>
+  <si>
+    <t>Wäŋa</t>
+  </si>
+  <si>
+    <t>Yalaŋbara</t>
+  </si>
+  <si>
+    <t>Yilpara</t>
+  </si>
+  <si>
+    <t>Baniyala</t>
+  </si>
+  <si>
+    <t>YilparaBaniyala</t>
+  </si>
+  <si>
+    <t>Manikay ga buŋgal</t>
+  </si>
+  <si>
+    <t>Guruṯu</t>
+  </si>
+  <si>
+    <t>Raypirri</t>
+  </si>
+  <si>
+    <t>Ŋatha ga</t>
+  </si>
+  <si>
+    <t>Dhäwu</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>guided/restricted</t>
+  </si>
+  <si>
+    <t>self-mediated</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Mother clan</t>
+  </si>
+  <si>
+    <t>Grandmother clan</t>
+  </si>
+  <si>
+    <t>Sister clan</t>
+  </si>
+  <si>
+    <t>Brother clan</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Guided/restricted</t>
+  </si>
+  <si>
+    <t>Self-Mediated</t>
+  </si>
+  <si>
+    <t>Open access</t>
+  </si>
+  <si>
+    <t>Guided/restricted access</t>
+  </si>
+  <si>
+    <t>Closed access</t>
+  </si>
+  <si>
+    <t>Self-mediated access</t>
+  </si>
+  <si>
+    <t>ManikayGaBuŋgal</t>
+  </si>
+  <si>
+    <t>ŊathaGa</t>
+  </si>
+  <si>
+    <t>Song and Dance</t>
+  </si>
+  <si>
+    <t>Kinship system</t>
+  </si>
+  <si>
+    <t>Story</t>
+  </si>
+  <si>
+    <t>Seasonal indicators</t>
+  </si>
+  <si>
+    <t>Discipline</t>
+  </si>
+  <si>
+    <t>danala:Mälk</t>
+  </si>
+  <si>
+    <t>danala:Bäpurru</t>
+  </si>
+  <si>
+    <t>danala:Wäŋa</t>
+  </si>
+  <si>
+    <t>danala:Moiety</t>
+  </si>
+  <si>
+    <t>hasMoiety</t>
+  </si>
+  <si>
+    <t>Has Moiety</t>
+  </si>
+  <si>
+    <t>Has moiety</t>
+  </si>
+  <si>
+    <t>https://w3id.org/danala/terms#Yirritja</t>
+  </si>
+  <si>
+    <t>https://w3id.org/danala/terms#Dhuwa</t>
+  </si>
+  <si>
+    <t>isRef_danala:hasMoiety</t>
+  </si>
+  <si>
+    <t>rdfs:label</t>
+  </si>
+  <si>
+    <t>Yolngu Access</t>
   </si>
 </sst>
 </file>
@@ -50377,26 +50678,658 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A614EEBA-3BF6-6845-A40D-CF160B4F87F7}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="43.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="7" customFormat="1">
+    <row r="1" spans="1:9" s="7" customFormat="1">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="12" t="str">
+        <f>_xlfn.CONCAT('@context'!$B$2, C2)</f>
+        <v>https://w3id.org/danala/terms#Bäpurru</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="12" t="str">
+        <f>_xlfn.CONCAT('@context'!$B$2, C3)</f>
+        <v>https://w3id.org/danala/terms#Moiety</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="12" t="str">
+        <f>_xlfn.CONCAT('@context'!$B$2, C4)</f>
+        <v>https://w3id.org/danala/terms#Mälk</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="12" t="str">
+        <f>_xlfn.CONCAT('@context'!$B$2, C5)</f>
+        <v>https://w3id.org/danala/terms#Wäŋa</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="12" t="str">
+        <f>_xlfn.CONCAT('@context'!$B$2, C6)</f>
+        <v>https://w3id.org/danala/terms#ManikayGaBuŋgal</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="12" t="str">
+        <f>_xlfn.CONCAT('@context'!$B$2, C7)</f>
+        <v>https://w3id.org/danala/terms#Guruṯu</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="12" t="str">
+        <f>_xlfn.CONCAT('@context'!$B$2, C8)</f>
+        <v>https://w3id.org/danala/terms#Raypirri</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="12" t="str">
+        <f>_xlfn.CONCAT('@context'!$B$2, C9)</f>
+        <v>https://w3id.org/danala/terms#ŊathaGa</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="12" t="str">
+        <f>_xlfn.CONCAT('@context'!$B$2, C10)</f>
+        <v>https://w3id.org/danala/terms#Dhäwu</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="12" t="str">
+        <f>_xlfn.CONCAT('@context'!$B$2, C11)</f>
+        <v>https://w3id.org/danala/terms#clanAccess</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C3E78B0-1287-3A4C-9243-9A26279A967A}">
+  <dimension ref="A1:K26"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2:G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="46.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="7" customFormat="1">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="12" t="str">
+        <f>_xlfn.CONCAT('@context'!$B$2, C2)</f>
+        <v>https://w3id.org/danala/terms#culturalAdvisor</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="12" t="str">
+        <f>_xlfn.CONCAT('@context'!$B$2, C3)</f>
+        <v>https://w3id.org/danala/terms#hasICIPAgreement</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="12" t="str">
+        <f>_xlfn.CONCAT('@context'!$B$2, C4)</f>
+        <v>https://w3id.org/danala/terms#ŋändipulu</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="12" t="str">
+        <f>_xlfn.CONCAT('@context'!$B$2, C5)</f>
+        <v>https://w3id.org/danala/terms#märipulu</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="12" t="str">
+        <f>_xlfn.CONCAT('@context'!$B$2, C6)</f>
+        <v>https://w3id.org/danala/terms#yapapulu</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="12" t="str">
+        <f>_xlfn.CONCAT('@context'!$B$2, C7)</f>
+        <v>https://w3id.org/danala/terms#wakupulu</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="12" t="str">
+        <f>_xlfn.CONCAT('@context'!$B$2, C8)</f>
+        <v>https://w3id.org/danala/terms#open</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="12" t="str">
+        <f>_xlfn.CONCAT('@context'!$B$2, C9)</f>
+        <v>https://w3id.org/danala/terms#guided/restricted</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="12" t="str">
+        <f>_xlfn.CONCAT('@context'!$B$2, C10)</f>
+        <v>https://w3id.org/danala/terms#self-mediated</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="12" t="str">
+        <f>_xlfn.CONCAT('@context'!$B$2, C11)</f>
+        <v>https://w3id.org/danala/terms#closed</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="12" t="str">
+        <f>_xlfn.CONCAT('@context'!$B$2, C12)</f>
+        <v>https://w3id.org/danala/terms#hasMoiety</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="C13"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="C14"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="C15"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="C16"/>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17"/>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18"/>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19"/>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20"/>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21"/>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22"/>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23"/>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24"/>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25"/>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF543A1-BD7B-7244-AF0C-4EB7563F3C76}">
+  <dimension ref="A1:I27"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="43.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="7" customFormat="1">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -50418,51 +51351,508 @@
       <c r="G1" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="5" customFormat="1">
       <c r="A2" s="12" t="str">
-        <f>_xlfn.CONCAT('@context'!B2, C2)</f>
-        <v>https://w3id.org/danala/terms#ICIPAgreement</v>
+        <f>_xlfn.CONCAT('@context'!$B$2, C2)</f>
+        <v>https://w3id.org/danala/terms#Dhaḻwaŋu</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="9"/>
+      <c r="I2" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="5" customFormat="1">
+      <c r="A3" s="12" t="str">
+        <f>_xlfn.CONCAT('@context'!$B$2, C3)</f>
+        <v>https://w3id.org/danala/terms#Dhalwaŋu?</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" s="5" customFormat="1">
+      <c r="A4" s="12" t="str">
+        <f>_xlfn.CONCAT('@context'!$B$2, C4)</f>
+        <v>https://w3id.org/danala/terms#Dhudi-Djapu</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" s="5" customFormat="1">
+      <c r="A5" s="12" t="str">
+        <f>_xlfn.CONCAT('@context'!$B$2, C5)</f>
+        <v>https://w3id.org/danala/terms#Djaduwitjbi</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" s="5" customFormat="1">
+      <c r="A6" s="12" t="str">
+        <f>_xlfn.CONCAT('@context'!$B$2, C6)</f>
+        <v>https://w3id.org/danala/terms#Djambarrpuyŋu</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="I6" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="5" customFormat="1">
+      <c r="A7" s="12" t="str">
+        <f>_xlfn.CONCAT('@context'!$B$2, C7)</f>
+        <v>https://w3id.org/danala/terms#Djimalka</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" s="5" customFormat="1">
+      <c r="A8" s="12" t="str">
+        <f>_xlfn.CONCAT('@context'!$B$2, C8)</f>
+        <v>https://w3id.org/danala/terms#Djinaŋ</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" s="5" customFormat="1">
+      <c r="A9" s="12" t="str">
+        <f>_xlfn.CONCAT('@context'!$B$2, C9)</f>
+        <v>https://w3id.org/danala/terms#Djinba</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" s="5" customFormat="1">
+      <c r="A10" s="12" t="str">
+        <f>_xlfn.CONCAT('@context'!$B$2, C10)</f>
+        <v>https://w3id.org/danala/terms#Gälpu</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="I10" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="5" customFormat="1">
+      <c r="A11" s="12" t="str">
+        <f>_xlfn.CONCAT('@context'!$B$2, C11)</f>
+        <v>https://w3id.org/danala/terms#Ganalbiŋu</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" s="5" customFormat="1">
+      <c r="A12" s="12" t="str">
+        <f>_xlfn.CONCAT('@context'!$B$2, C12)</f>
+        <v>https://w3id.org/danala/terms#Garrawurra</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" s="5" customFormat="1">
+      <c r="A13" s="12" t="str">
+        <f>_xlfn.CONCAT('@context'!$B$2, C13)</f>
+        <v>https://w3id.org/danala/terms#Golumala</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="I13" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="5" customFormat="1">
+      <c r="A14" s="12" t="str">
+        <f>_xlfn.CONCAT('@context'!$B$2, C14)</f>
+        <v>https://w3id.org/danala/terms#Gumatj</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="I14" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="5" customFormat="1">
+      <c r="A15" s="12" t="str">
+        <f>_xlfn.CONCAT('@context'!$B$2, C15)</f>
+        <v>https://w3id.org/danala/terms#Gupapuyŋu</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="I15" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="5" customFormat="1">
+      <c r="A16" s="12" t="str">
+        <f>_xlfn.CONCAT('@context'!$B$2, C16)</f>
+        <v>https://w3id.org/danala/terms#Guyamirrilil?</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:9" s="5" customFormat="1">
+      <c r="A17" s="12" t="str">
+        <f>_xlfn.CONCAT('@context'!$B$2, C17)</f>
+        <v>https://w3id.org/danala/terms#Liyagalawumirr</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" s="5" customFormat="1">
+      <c r="A18" s="12" t="str">
+        <f>_xlfn.CONCAT('@context'!$B$2, C18)</f>
+        <v>https://w3id.org/danala/terms#Liyagawumirr</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" s="5" customFormat="1">
+      <c r="A19" s="12" t="str">
+        <f>_xlfn.CONCAT('@context'!$B$2, C19)</f>
+        <v>https://w3id.org/danala/terms#Manhdhalpiŋu</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:9" s="5" customFormat="1">
+      <c r="A20" s="12" t="str">
+        <f>_xlfn.CONCAT('@context'!$B$2, C20)</f>
+        <v>https://w3id.org/danala/terms#Marraŋu</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="I20" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="5" customFormat="1">
+      <c r="A21" s="12" t="str">
+        <f>_xlfn.CONCAT('@context'!$B$2, C21)</f>
+        <v>https://w3id.org/danala/terms#Marraŋu/Dijnaŋ</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:9" s="5" customFormat="1">
+      <c r="A22" s="12" t="str">
+        <f>_xlfn.CONCAT('@context'!$B$2, C22)</f>
+        <v>https://w3id.org/danala/terms#Mildjiŋi</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" s="5" customFormat="1">
+      <c r="A23" s="12" t="str">
+        <f>_xlfn.CONCAT('@context'!$B$2, C23)</f>
+        <v>https://w3id.org/danala/terms#Rirratjiŋu</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="I23" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="5" customFormat="1">
+      <c r="A24" s="12" t="str">
+        <f>_xlfn.CONCAT('@context'!$B$2, C24)</f>
+        <v>https://w3id.org/danala/terms#Wamut</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="12" t="str">
+        <f>_xlfn.CONCAT('@context'!$B$2, C25)</f>
+        <v>https://w3id.org/danala/terms#Wangurri</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="I25" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="12" t="str">
+        <f>_xlfn.CONCAT('@context'!$B$2, C26)</f>
+        <v>https://w3id.org/danala/terms#Wanybarrŋa</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="12" t="str">
+        <f>_xlfn.CONCAT('@context'!$B$2, C27)</f>
+        <v>https://w3id.org/danala/terms#Warramiri</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="I27" s="12" t="s">
+        <v>120</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C3E78B0-1287-3A4C-9243-9A26279A967A}">
-  <dimension ref="A1:H3"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E922528-B3B2-2C42-BCB9-4467011CD60F}">
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="46.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="43" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="5"/>
+    <col min="1" max="1" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="7" customFormat="1">
@@ -50488,61 +51878,596 @@
         <v>7</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" s="5" customFormat="1">
       <c r="A2" s="12" t="str">
-        <f>_xlfn.CONCAT('@context'!B2, C2)</f>
-        <v>https://w3id.org/danala/terms#culturalAdvisor</v>
+        <f>_xlfn.CONCAT('@context'!$B$2, C2)</f>
+        <v>https://w3id.org/danala/terms#Yirritja</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>8</v>
+        <v>116</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>19</v>
+        <v>32</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:8" s="5" customFormat="1">
+      <c r="A3" s="12" t="str">
+        <f>_xlfn.CONCAT('@context'!$B$2, C3)</f>
+        <v>https://w3id.org/danala/terms#Dhuwa</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" s="5" customFormat="1">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" s="5" customFormat="1">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" s="5" customFormat="1">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" s="5" customFormat="1">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" s="5" customFormat="1">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" s="5" customFormat="1">
+      <c r="A9" s="13"/>
+      <c r="C9"/>
+    </row>
+    <row r="10" spans="1:8" s="5" customFormat="1">
+      <c r="A10" s="13"/>
+      <c r="C10"/>
+    </row>
+    <row r="11" spans="1:8" s="5" customFormat="1">
+      <c r="A11" s="13"/>
+      <c r="C11"/>
+    </row>
+    <row r="12" spans="1:8" s="5" customFormat="1">
+      <c r="A12" s="13"/>
+      <c r="C12"/>
+    </row>
+    <row r="13" spans="1:8" s="5" customFormat="1">
+      <c r="A13" s="13"/>
+      <c r="C13"/>
+    </row>
+    <row r="14" spans="1:8" s="5" customFormat="1">
+      <c r="A14" s="13"/>
+      <c r="C14"/>
+    </row>
+    <row r="15" spans="1:8" s="5" customFormat="1">
+      <c r="A15" s="13"/>
+      <c r="C15"/>
+    </row>
+    <row r="16" spans="1:8" s="5" customFormat="1">
+      <c r="A16" s="13"/>
+      <c r="C16"/>
+    </row>
+    <row r="17" spans="1:3" s="5" customFormat="1">
+      <c r="A17" s="13"/>
+      <c r="C17"/>
+    </row>
+    <row r="18" spans="1:3" s="5" customFormat="1">
+      <c r="A18" s="13"/>
+      <c r="C18"/>
+    </row>
+    <row r="19" spans="1:3" s="5" customFormat="1">
+      <c r="A19" s="13"/>
+      <c r="C19"/>
+    </row>
+    <row r="20" spans="1:3" s="5" customFormat="1">
+      <c r="A20" s="13"/>
+      <c r="C20"/>
+    </row>
+    <row r="21" spans="1:3" s="5" customFormat="1">
+      <c r="A21" s="13"/>
+      <c r="C21"/>
+    </row>
+    <row r="22" spans="1:3" s="5" customFormat="1">
+      <c r="A22" s="13"/>
+      <c r="C22"/>
+    </row>
+    <row r="23" spans="1:3" s="5" customFormat="1">
+      <c r="A23" s="13"/>
+      <c r="C23"/>
+    </row>
+    <row r="24" spans="1:3" s="5" customFormat="1">
+      <c r="A24" s="13"/>
+      <c r="C24"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4952ADAE-5A75-BD44-B828-0D0812FCF1A8}">
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="39.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="7" customFormat="1">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="5" customFormat="1">
+      <c r="A2" s="12" t="str">
+        <f>_xlfn.CONCAT('@context'!$B$2, C2)</f>
+        <v>https://w3id.org/danala/terms#Baŋadi?</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" s="5" customFormat="1">
       <c r="A3" s="12" t="str">
-        <f>_xlfn.CONCAT('@context'!B2, C3)</f>
-        <v>https://w3id.org/danala/terms#hasICIPAgreement</v>
+        <f>_xlfn.CONCAT('@context'!$B$2, C3)</f>
+        <v>https://w3id.org/danala/terms#Baŋali</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>8</v>
+        <v>113</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="5" t="s">
-        <v>25</v>
+    </row>
+    <row r="4" spans="1:8" s="5" customFormat="1">
+      <c r="A4" s="12" t="str">
+        <f>_xlfn.CONCAT('@context'!$B$2, C4)</f>
+        <v>https://w3id.org/danala/terms#Bilinydjan</v>
       </c>
+      <c r="B4" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" s="5" customFormat="1">
+      <c r="A5" s="12" t="str">
+        <f>_xlfn.CONCAT('@context'!$B$2, C5)</f>
+        <v>https://w3id.org/danala/terms#Bulanydjan</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" s="5" customFormat="1">
+      <c r="A6" s="12" t="str">
+        <f>_xlfn.CONCAT('@context'!$B$2, C6)</f>
+        <v>https://w3id.org/danala/terms#Gamarraŋ</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" s="5" customFormat="1">
+      <c r="A7" s="12" t="str">
+        <f>_xlfn.CONCAT('@context'!$B$2, C7)</f>
+        <v>https://w3id.org/danala/terms#Ŋarritjan</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" s="5" customFormat="1">
+      <c r="A8" s="12" t="str">
+        <f>_xlfn.CONCAT('@context'!$B$2, C8)</f>
+        <v>https://w3id.org/danala/terms#Wamut</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" s="5" customFormat="1">
+      <c r="A9" s="13"/>
+      <c r="C9"/>
+    </row>
+    <row r="10" spans="1:8" s="5" customFormat="1">
+      <c r="A10" s="13"/>
+      <c r="C10"/>
+    </row>
+    <row r="11" spans="1:8" s="5" customFormat="1">
+      <c r="A11" s="13"/>
+      <c r="C11"/>
+    </row>
+    <row r="12" spans="1:8" s="5" customFormat="1">
+      <c r="A12" s="13"/>
+      <c r="C12"/>
+    </row>
+    <row r="13" spans="1:8" s="5" customFormat="1">
+      <c r="A13" s="13"/>
+      <c r="C13"/>
+    </row>
+    <row r="14" spans="1:8" s="5" customFormat="1">
+      <c r="A14" s="13"/>
+      <c r="C14"/>
+    </row>
+    <row r="15" spans="1:8" s="5" customFormat="1">
+      <c r="A15" s="13"/>
+      <c r="C15"/>
+    </row>
+    <row r="16" spans="1:8" s="5" customFormat="1">
+      <c r="A16" s="13"/>
+      <c r="C16"/>
+    </row>
+    <row r="17" spans="1:3" s="5" customFormat="1">
+      <c r="A17" s="13"/>
+      <c r="C17"/>
+    </row>
+    <row r="18" spans="1:3" s="5" customFormat="1">
+      <c r="A18" s="13"/>
+      <c r="C18"/>
+    </row>
+    <row r="19" spans="1:3" s="5" customFormat="1">
+      <c r="A19" s="13"/>
+      <c r="C19"/>
+    </row>
+    <row r="20" spans="1:3" s="5" customFormat="1">
+      <c r="A20" s="13"/>
+      <c r="C20"/>
+    </row>
+    <row r="21" spans="1:3" s="5" customFormat="1">
+      <c r="A21" s="13"/>
+      <c r="C21"/>
+    </row>
+    <row r="22" spans="1:3" s="5" customFormat="1">
+      <c r="A22" s="13"/>
+      <c r="C22"/>
+    </row>
+    <row r="23" spans="1:3" s="5" customFormat="1">
+      <c r="A23" s="13"/>
+      <c r="C23"/>
+    </row>
+    <row r="24" spans="1:3" s="5" customFormat="1">
+      <c r="A24" s="13"/>
+      <c r="C24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18DECF36-B1D4-8545-AEF6-689203632B0D}">
-  <dimension ref="A1:H1"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22909FE1-31A6-8F41-A131-A0B85912141A}">
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="43.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="7" customFormat="1">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="5" customFormat="1">
+      <c r="A2" s="12" t="str">
+        <f>_xlfn.CONCAT('@context'!$B$2,C2)</f>
+        <v>https://w3id.org/danala/terms#Yalaŋbara</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:9" s="5" customFormat="1">
+      <c r="A3" s="12" t="str">
+        <f>_xlfn.CONCAT('@context'!$B$2,C3)</f>
+        <v>https://w3id.org/danala/terms#YilparaBaniyala</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" s="5" customFormat="1">
+      <c r="A4" s="13"/>
+      <c r="C4"/>
+      <c r="D4"/>
+    </row>
+    <row r="5" spans="1:9" s="5" customFormat="1">
+      <c r="A5" s="13"/>
+      <c r="C5"/>
+      <c r="D5"/>
+    </row>
+    <row r="6" spans="1:9" s="5" customFormat="1">
+      <c r="A6" s="13"/>
+      <c r="C6"/>
+      <c r="D6"/>
+    </row>
+    <row r="7" spans="1:9" s="5" customFormat="1">
+      <c r="A7" s="13"/>
+      <c r="C7"/>
+      <c r="D7"/>
+    </row>
+    <row r="8" spans="1:9" s="5" customFormat="1">
+      <c r="A8" s="13"/>
+      <c r="C8"/>
+      <c r="D8"/>
+    </row>
+    <row r="9" spans="1:9" s="5" customFormat="1">
+      <c r="A9" s="13"/>
+      <c r="C9"/>
+      <c r="D9"/>
+    </row>
+    <row r="10" spans="1:9" s="5" customFormat="1">
+      <c r="A10" s="13"/>
+      <c r="C10"/>
+      <c r="D10"/>
+    </row>
+    <row r="11" spans="1:9" s="5" customFormat="1">
+      <c r="A11" s="13"/>
+      <c r="C11"/>
+      <c r="D11"/>
+    </row>
+    <row r="12" spans="1:9" s="5" customFormat="1">
+      <c r="A12" s="13"/>
+      <c r="C12"/>
+      <c r="D12"/>
+    </row>
+    <row r="13" spans="1:9" s="5" customFormat="1">
+      <c r="A13" s="13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+    </row>
+    <row r="14" spans="1:9" s="5" customFormat="1">
+      <c r="A14" s="13"/>
+      <c r="C14"/>
+      <c r="D14"/>
+    </row>
+    <row r="15" spans="1:9" s="5" customFormat="1">
+      <c r="A15" s="13"/>
+      <c r="C15"/>
+      <c r="D15"/>
+    </row>
+    <row r="16" spans="1:9" s="5" customFormat="1">
+      <c r="A16" s="13"/>
+      <c r="C16"/>
+      <c r="D16"/>
+    </row>
+    <row r="17" spans="1:4" s="5" customFormat="1">
+      <c r="A17" s="13"/>
+      <c r="C17"/>
+      <c r="D17"/>
+    </row>
+    <row r="18" spans="1:4" s="5" customFormat="1">
+      <c r="A18" s="13"/>
+      <c r="C18"/>
+      <c r="D18"/>
+    </row>
+    <row r="19" spans="1:4" s="5" customFormat="1">
+      <c r="A19" s="13"/>
+      <c r="C19"/>
+      <c r="D19"/>
+    </row>
+    <row r="20" spans="1:4" s="5" customFormat="1">
+      <c r="A20" s="13"/>
+      <c r="C20"/>
+      <c r="D20"/>
+    </row>
+    <row r="21" spans="1:4" s="5" customFormat="1">
+      <c r="A21" s="13"/>
+      <c r="C21"/>
+      <c r="D21"/>
+    </row>
+    <row r="22" spans="1:4" s="5" customFormat="1">
+      <c r="A22" s="13"/>
+      <c r="C22"/>
+      <c r="D22"/>
+    </row>
+    <row r="23" spans="1:4" s="5" customFormat="1">
+      <c r="A23" s="13"/>
+      <c r="C23"/>
+      <c r="D23"/>
+    </row>
+    <row r="24" spans="1:4" s="5" customFormat="1">
+      <c r="A24" s="13"/>
+      <c r="C24"/>
+      <c r="D24"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18DECF36-B1D4-8545-AEF6-689203632B0D}">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -50578,11 +52503,71 @@
         <v>9</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>6</v>
+        <v>123</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="12" t="str">
+        <f>_xlfn.CONCAT('@context'!B2, C2)</f>
+        <v>https://w3id.org/danala/terms#yolnuAccess</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="6"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="6"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="6"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="6"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/schema-crate/ro-crate-metadata-danala.xlsx
+++ b/schema-crate/ro-crate-metadata-danala.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uqrsmi37/Downloads/danala-schema-updated/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0623A2A-8BCC-B24A-A1F5-90354EA2D478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88BA31EB-6517-DF44-B28D-D408C2350B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RootDataset" sheetId="10" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="132">
   <si>
     <t>@id</t>
   </si>
@@ -49,7 +49,13 @@
     <t>@type</t>
   </si>
   <si>
+    <t>RepositoryObject</t>
+  </si>
+  <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>Person</t>
   </si>
   <si>
     <t>description</t>
@@ -104,9 +110,6 @@
   </si>
   <si>
     <t>hasICIPAgreement</t>
-  </si>
-  <si>
-    <t>Has ICIP Agreement</t>
   </si>
   <si>
     <t>isRef_rangeIncludes</t>
@@ -416,6 +419,24 @@
   </si>
   <si>
     <t>Yolngu Access</t>
+  </si>
+  <si>
+    <t>danala:ClanAccess</t>
+  </si>
+  <si>
+    <t>ClanAccess</t>
+  </si>
+  <si>
+    <t>hasICIPStatement</t>
+  </si>
+  <si>
+    <t>Has ICIP Statement</t>
+  </si>
+  <si>
+    <t>http://schema.org/Person</t>
+  </si>
+  <si>
+    <t>A person (alive, dead, undead, or fictional).</t>
   </si>
 </sst>
 </file>
@@ -1482,10 +1503,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1493,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1501,23 +1522,23 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -50656,7 +50677,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="8" customFormat="1">
       <c r="A1" s="7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -50664,10 +50685,10 @@
     </row>
     <row r="2" spans="1:2" s="10" customFormat="1">
       <c r="A2" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -50678,11 +50699,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A614EEBA-3BF6-6845-A40D-CF160B4F87F7}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2:F11"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -50705,19 +50726,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -50726,19 +50747,19 @@
         <v>https://w3id.org/danala/terms#Bäpurru</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G2" s="9"/>
     </row>
@@ -50748,17 +50769,17 @@
         <v>https://w3id.org/danala/terms#Moiety</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G3" s="9"/>
     </row>
@@ -50768,19 +50789,19 @@
         <v>https://w3id.org/danala/terms#Mälk</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G4" s="9"/>
     </row>
@@ -50790,22 +50811,22 @@
         <v>https://w3id.org/danala/terms#Wäŋa</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="F5" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -50814,19 +50835,19 @@
         <v>https://w3id.org/danala/terms#ManikayGaBuŋgal</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -50835,19 +50856,19 @@
         <v>https://w3id.org/danala/terms#Guruṯu</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -50856,19 +50877,19 @@
         <v>https://w3id.org/danala/terms#Raypirri</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -50877,19 +50898,19 @@
         <v>https://w3id.org/danala/terms#ŊathaGa</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -50898,43 +50919,63 @@
         <v>https://w3id.org/danala/terms#Dhäwu</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="12" t="str">
         <f>_xlfn.CONCAT('@context'!$B$2, C11)</f>
-        <v>https://w3id.org/danala/terms#clanAccess</v>
+        <v>https://w3id.org/danala/terms#ClanAccess</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>131</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -50945,11 +50986,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C3E78B0-1287-3A4C-9243-9A26279A967A}">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2:G12"/>
+      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -50962,12 +51003,11 @@
     <col min="6" max="6" width="22.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="5"/>
+    <col min="9" max="9" width="43" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="7" customFormat="1">
+    <row r="1" spans="1:10" s="7" customFormat="1">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -50975,302 +51015,306 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="12" t="str">
         <f>_xlfn.CONCAT('@context'!$B$2, C2)</f>
         <v>https://w3id.org/danala/terms#culturalAdvisor</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="G2" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-    </row>
-    <row r="3" spans="1:11">
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="12" t="str">
         <f>_xlfn.CONCAT('@context'!$B$2, C3)</f>
-        <v>https://w3id.org/danala/terms#hasICIPAgreement</v>
+        <v>https://w3id.org/danala/terms#hasICIPStatement</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="G3" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="5" t="s">
-        <v>23</v>
+      <c r="I3" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:10">
       <c r="A4" s="12" t="str">
         <f>_xlfn.CONCAT('@context'!$B$2, C4)</f>
         <v>https://w3id.org/danala/terms#ŋändipulu</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="G4" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H4" s="9"/>
-      <c r="I4" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="12" t="str">
         <f>_xlfn.CONCAT('@context'!$B$2, C5)</f>
         <v>https://w3id.org/danala/terms#märipulu</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="G5" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
-      <c r="I5" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="12" t="str">
         <f>_xlfn.CONCAT('@context'!$B$2, C6)</f>
         <v>https://w3id.org/danala/terms#yapapulu</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="G6" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
-      <c r="I6" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="12" t="str">
         <f>_xlfn.CONCAT('@context'!$B$2, C7)</f>
         <v>https://w3id.org/danala/terms#wakupulu</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
-      <c r="F7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="G7" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
-      <c r="I7" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="12" t="str">
         <f>_xlfn.CONCAT('@context'!$B$2, C8)</f>
         <v>https://w3id.org/danala/terms#open</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
-      <c r="F8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>126</v>
+      </c>
       <c r="G8" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9" spans="1:11">
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="12" t="str">
         <f>_xlfn.CONCAT('@context'!$B$2, C9)</f>
         <v>https://w3id.org/danala/terms#guided/restricted</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>126</v>
+      </c>
       <c r="G9" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:10">
       <c r="A10" s="12" t="str">
         <f>_xlfn.CONCAT('@context'!$B$2, C10)</f>
         <v>https://w3id.org/danala/terms#self-mediated</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
-      <c r="F10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>126</v>
+      </c>
       <c r="G10" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:10">
       <c r="A11" s="12" t="str">
         <f>_xlfn.CONCAT('@context'!$B$2, C11)</f>
         <v>https://w3id.org/danala/terms#closed</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
-      <c r="F11" s="4"/>
+      <c r="F11" s="4" t="s">
+        <v>126</v>
+      </c>
       <c r="G11" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:10">
       <c r="A12" s="12" t="str">
         <f>_xlfn.CONCAT('@context'!$B$2, C12)</f>
         <v>https://w3id.org/danala/terms#hasMoiety</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D12" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+    </row>
+    <row r="13" spans="1:10">
       <c r="C13"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:10">
       <c r="C14"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:10">
       <c r="C15"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:10">
       <c r="C16"/>
     </row>
     <row r="17" spans="3:3">
@@ -51337,25 +51381,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="5" customFormat="1">
@@ -51364,19 +51408,19 @@
         <v>https://w3id.org/danala/terms#Dhaḻwaŋu</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="9"/>
       <c r="I2" s="12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="5" customFormat="1">
@@ -51385,13 +51429,13 @@
         <v>https://w3id.org/danala/terms#Dhalwaŋu?</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -51402,13 +51446,13 @@
         <v>https://w3id.org/danala/terms#Dhudi-Djapu</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -51419,13 +51463,13 @@
         <v>https://w3id.org/danala/terms#Djaduwitjbi</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -51436,18 +51480,18 @@
         <v>https://w3id.org/danala/terms#Djambarrpuyŋu</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="I6" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="5" customFormat="1">
@@ -51456,13 +51500,13 @@
         <v>https://w3id.org/danala/terms#Djimalka</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -51473,13 +51517,13 @@
         <v>https://w3id.org/danala/terms#Djinaŋ</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -51490,13 +51534,13 @@
         <v>https://w3id.org/danala/terms#Djinba</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -51507,18 +51551,18 @@
         <v>https://w3id.org/danala/terms#Gälpu</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="I10" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="5" customFormat="1">
@@ -51527,13 +51571,13 @@
         <v>https://w3id.org/danala/terms#Ganalbiŋu</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -51544,13 +51588,13 @@
         <v>https://w3id.org/danala/terms#Garrawurra</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -51561,18 +51605,18 @@
         <v>https://w3id.org/danala/terms#Golumala</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="I13" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="5" customFormat="1">
@@ -51581,18 +51625,18 @@
         <v>https://w3id.org/danala/terms#Gumatj</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="I14" s="12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="5" customFormat="1">
@@ -51601,18 +51645,18 @@
         <v>https://w3id.org/danala/terms#Gupapuyŋu</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="I15" s="12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="5" customFormat="1">
@@ -51621,13 +51665,13 @@
         <v>https://w3id.org/danala/terms#Guyamirrilil?</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -51638,13 +51682,13 @@
         <v>https://w3id.org/danala/terms#Liyagalawumirr</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -51655,13 +51699,13 @@
         <v>https://w3id.org/danala/terms#Liyagawumirr</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -51672,13 +51716,13 @@
         <v>https://w3id.org/danala/terms#Manhdhalpiŋu</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -51689,18 +51733,18 @@
         <v>https://w3id.org/danala/terms#Marraŋu</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="I20" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="5" customFormat="1">
@@ -51709,13 +51753,13 @@
         <v>https://w3id.org/danala/terms#Marraŋu/Dijnaŋ</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -51726,13 +51770,13 @@
         <v>https://w3id.org/danala/terms#Mildjiŋi</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -51743,18 +51787,18 @@
         <v>https://w3id.org/danala/terms#Rirratjiŋu</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="I23" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="5" customFormat="1">
@@ -51763,13 +51807,13 @@
         <v>https://w3id.org/danala/terms#Wamut</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -51780,18 +51824,18 @@
         <v>https://w3id.org/danala/terms#Wangurri</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="I25" s="12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -51800,13 +51844,13 @@
         <v>https://w3id.org/danala/terms#Wanybarrŋa</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -51817,18 +51861,18 @@
         <v>https://w3id.org/danala/terms#Warramiri</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="I27" s="12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -51863,22 +51907,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="5" customFormat="1">
@@ -51887,16 +51931,16 @@
         <v>https://w3id.org/danala/terms#Yirritja</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="9"/>
@@ -51907,16 +51951,16 @@
         <v>https://w3id.org/danala/terms#Dhuwa</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F3" s="4"/>
     </row>
@@ -52056,22 +52100,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="5" customFormat="1">
@@ -52080,13 +52124,13 @@
         <v>https://w3id.org/danala/terms#Baŋadi?</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -52098,13 +52142,13 @@
         <v>https://w3id.org/danala/terms#Baŋali</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -52115,13 +52159,13 @@
         <v>https://w3id.org/danala/terms#Bilinydjan</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -52132,13 +52176,13 @@
         <v>https://w3id.org/danala/terms#Bulanydjan</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -52149,13 +52193,13 @@
         <v>https://w3id.org/danala/terms#Gamarraŋ</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -52166,13 +52210,13 @@
         <v>https://w3id.org/danala/terms#Ŋarritjan</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -52183,13 +52227,13 @@
         <v>https://w3id.org/danala/terms#Wamut</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -52291,25 +52335,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="5" customFormat="1">
@@ -52318,13 +52362,13 @@
         <v>https://w3id.org/danala/terms#Yalaŋbara</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -52337,16 +52381,16 @@
         <v>https://w3id.org/danala/terms#YilparaBaniyala</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -52465,7 +52509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18DECF36-B1D4-8545-AEF6-689203632B0D}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
@@ -52491,22 +52535,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -52515,18 +52559,18 @@
         <v>https://w3id.org/danala/terms#yolnuAccess</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:8">
